--- a/templates/Master Data Template.xlsx
+++ b/templates/Master Data Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sekolah" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Nama</t>
   </si>
   <si>
-    <t xml:space="preserve">SMK Bontoasa</t>
+    <t xml:space="preserve">UPTD SMP Negeri 39 Sinjai</t>
   </si>
   <si>
     <t xml:space="preserve">Alamat</t>
@@ -519,16 +519,14 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,10 +639,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -819,11 +814,9 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,16 +901,14 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/templates/Master Data Template.xlsx
+++ b/templates/Master Data Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sekolah" sheetId="1" state="visible" r:id="rId2"/>
@@ -519,11 +519,11 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.45"/>
@@ -639,7 +639,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -814,7 +814,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
   </cols>
@@ -901,11 +901,11 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.87"/>
